--- a/biology/Zoologie/Haplochromis_argenteus/Haplochromis_argenteus.xlsx
+++ b/biology/Zoologie/Haplochromis_argenteus/Haplochromis_argenteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplochromis argenteus est une espèce de poissons de la famille des Cichlidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du lac Victoria en Afrique. Elle n'a été observée que sur le territoire de l'Ouganda[3] mais pas en Tanzanie et au Kenya qui possèdent également une partie du lac. Elle est présente jusqu'à 12 m de profondeur[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du lac Victoria en Afrique. Elle n'a été observée que sur le territoire de l'Ouganda mais pas en Tanzanie et au Kenya qui possèdent également une partie du lac. Elle est présente jusqu'à 12 m de profondeur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haplochromis argenteus peut atteindre jusqu'à 202 mm de longueur totale[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haplochromis argenteus peut atteindre jusqu'à 202 mm de longueur totale. 
 </t>
         </is>
       </c>
